--- a/biology/Botanique/Blanche_de_Belgique/Blanche_de_Belgique.xlsx
+++ b/biology/Botanique/Blanche_de_Belgique/Blanche_de_Belgique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Blanche de Belgique' est un cultivar de rose ancienne, hybride de Rosa alba, obtenu avant 1846 par un obtenteur inconnu. Certains l'attribuent à Vibert[1], en 1817.
+'Blanche de Belgique' est un cultivar de rose ancienne, hybride de Rosa alba, obtenu avant 1846 par un obtenteur inconnu. Certains l'attribuent à Vibert, en 1817.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un rosier extrêmement vigoureux dont les fleurs doubles (17-25 pétales) et parfumées[2] sont d'un blanc immaculé lorsqu'elles sont bien épanouies avec une légère nuance crème au cœur. La floraison abondante a lieu à la fin du printemps et au début de l'été.
-Le buisson s'élève de 150 cm à 215 cm pour une envergure de plus de 120 cm[3].  
-Sa zone de rusticité descend à 3b ; il est donc très résistant aux grands froids, d'ailleurs la société suédoise des roses le recommande pour son pays[3]. Il faut le tailler après la floraison, puis en février ou mars. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un rosier extrêmement vigoureux dont les fleurs doubles (17-25 pétales) et parfumées sont d'un blanc immaculé lorsqu'elles sont bien épanouies avec une légère nuance crème au cœur. La floraison abondante a lieu à la fin du printemps et au début de l'été.
+Le buisson s'élève de 150 cm à 215 cm pour une envergure de plus de 120 cm.  
+Sa zone de rusticité descend à 3b ; il est donc très résistant aux grands froids, d'ailleurs la société suédoise des roses le recommande pour son pays. Il faut le tailler après la floraison, puis en février ou mars. 
 </t>
         </is>
       </c>
